--- a/media/yield - Copy.xlsx
+++ b/media/yield - Copy.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="SmartInvest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="İpoteka hesablaması (TR)" sheetId="3" r:id="rId2"/>
     <sheet name="İpoteka hesablaması (AZE)" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
@@ -2097,8 +2097,8 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="20">
-        <f>SmartInvest!$D$5</f>
+        <f>Sheet1!$D$5</f>
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="E5" s="17"/>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="20">
-        <f>SmartInvest!E5</f>
+        <f>Sheet1!E5</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E5" s="17"/>

--- a/media/yield - Copy.xlsx
+++ b/media/yield - Copy.xlsx
@@ -2098,7 +2098,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5204,7 +5204,7 @@
       <c r="C7" s="75"/>
       <c r="D7" s="23">
         <f ca="1">TODAY()</f>
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="75" t="s">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C10" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="D10" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="C11" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="D11" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C12" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="D12" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="C13" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="D13" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C14" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="D14" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C15" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="D15" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="C16" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45483</v>
+        <v>45485</v>
       </c>
       <c r="D16" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C17" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45514</v>
+        <v>45516</v>
       </c>
       <c r="D17" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C18" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45545</v>
+        <v>45547</v>
       </c>
       <c r="D18" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C19" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45575</v>
+        <v>45577</v>
       </c>
       <c r="D19" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="C20" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="D20" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C21" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="D21" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C22" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="D22" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C23" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="D23" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="C24" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45726</v>
+        <v>45728</v>
       </c>
       <c r="D24" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="C25" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45757</v>
+        <v>45759</v>
       </c>
       <c r="D25" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C26" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45787</v>
+        <v>45789</v>
       </c>
       <c r="D26" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C27" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="D27" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C28" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="D28" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C29" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="D29" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C30" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="D30" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="C31" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="D31" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="C32" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45971</v>
+        <v>45973</v>
       </c>
       <c r="D32" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C33" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="D33" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="C34" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46032</v>
+        <v>46034</v>
       </c>
       <c r="D34" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C35" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="D35" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C36" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46091</v>
+        <v>46093</v>
       </c>
       <c r="D36" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="C37" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46122</v>
+        <v>46124</v>
       </c>
       <c r="D37" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="C38" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46152</v>
+        <v>46154</v>
       </c>
       <c r="D38" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="C39" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46183</v>
+        <v>46185</v>
       </c>
       <c r="D39" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="C40" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46213</v>
+        <v>46215</v>
       </c>
       <c r="D40" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="C41" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46244</v>
+        <v>46246</v>
       </c>
       <c r="D41" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="C42" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46275</v>
+        <v>46277</v>
       </c>
       <c r="D42" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="C43" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46305</v>
+        <v>46307</v>
       </c>
       <c r="D43" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C44" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46336</v>
+        <v>46338</v>
       </c>
       <c r="D44" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C45" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46366</v>
+        <v>46368</v>
       </c>
       <c r="D45" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C46" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46397</v>
+        <v>46399</v>
       </c>
       <c r="D46" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C47" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46428</v>
+        <v>46430</v>
       </c>
       <c r="D47" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="C48" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46456</v>
+        <v>46458</v>
       </c>
       <c r="D48" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C49" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46487</v>
+        <v>46489</v>
       </c>
       <c r="D49" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="C50" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46517</v>
+        <v>46519</v>
       </c>
       <c r="D50" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C51" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46548</v>
+        <v>46550</v>
       </c>
       <c r="D51" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C52" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46578</v>
+        <v>46580</v>
       </c>
       <c r="D52" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="C53" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46609</v>
+        <v>46611</v>
       </c>
       <c r="D53" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="C54" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46640</v>
+        <v>46642</v>
       </c>
       <c r="D54" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="C55" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46670</v>
+        <v>46672</v>
       </c>
       <c r="D55" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="C56" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46701</v>
+        <v>46703</v>
       </c>
       <c r="D56" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="C57" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46731</v>
+        <v>46733</v>
       </c>
       <c r="D57" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C58" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46762</v>
+        <v>46764</v>
       </c>
       <c r="D58" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="C59" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46793</v>
+        <v>46795</v>
       </c>
       <c r="D59" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="C60" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46822</v>
+        <v>46824</v>
       </c>
       <c r="D60" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="C61" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46853</v>
+        <v>46855</v>
       </c>
       <c r="D61" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C62" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46883</v>
+        <v>46885</v>
       </c>
       <c r="D62" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C63" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46914</v>
+        <v>46916</v>
       </c>
       <c r="D63" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="C64" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46944</v>
+        <v>46946</v>
       </c>
       <c r="D64" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C65" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46975</v>
+        <v>46977</v>
       </c>
       <c r="D65" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="C66" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47006</v>
+        <v>47008</v>
       </c>
       <c r="D66" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="C67" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47036</v>
+        <v>47038</v>
       </c>
       <c r="D67" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="C68" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47067</v>
+        <v>47069</v>
       </c>
       <c r="D68" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="C69" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47097</v>
+        <v>47099</v>
       </c>
       <c r="D69" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="C70" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47128</v>
+        <v>47130</v>
       </c>
       <c r="D70" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="C71" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47159</v>
+        <v>47161</v>
       </c>
       <c r="D71" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C72" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47187</v>
+        <v>47189</v>
       </c>
       <c r="D72" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="C73" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47218</v>
+        <v>47220</v>
       </c>
       <c r="D73" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="C74" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47248</v>
+        <v>47250</v>
       </c>
       <c r="D74" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C75" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47279</v>
+        <v>47281</v>
       </c>
       <c r="D75" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="C76" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47309</v>
+        <v>47311</v>
       </c>
       <c r="D76" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="C77" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47340</v>
+        <v>47342</v>
       </c>
       <c r="D77" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="C78" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47371</v>
+        <v>47373</v>
       </c>
       <c r="D78" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="C79" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47401</v>
+        <v>47403</v>
       </c>
       <c r="D79" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C80" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47432</v>
+        <v>47434</v>
       </c>
       <c r="D80" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="C81" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47462</v>
+        <v>47464</v>
       </c>
       <c r="D81" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="C82" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47493</v>
+        <v>47495</v>
       </c>
       <c r="D82" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C83" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47524</v>
+        <v>47526</v>
       </c>
       <c r="D83" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="C84" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47552</v>
+        <v>47554</v>
       </c>
       <c r="D84" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="C85" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47583</v>
+        <v>47585</v>
       </c>
       <c r="D85" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C86" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47613</v>
+        <v>47615</v>
       </c>
       <c r="D86" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="C87" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47644</v>
+        <v>47646</v>
       </c>
       <c r="D87" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="C88" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47674</v>
+        <v>47676</v>
       </c>
       <c r="D88" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="C89" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47705</v>
+        <v>47707</v>
       </c>
       <c r="D89" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C90" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47736</v>
+        <v>47738</v>
       </c>
       <c r="D90" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C91" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47766</v>
+        <v>47768</v>
       </c>
       <c r="D91" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="C92" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47797</v>
+        <v>47799</v>
       </c>
       <c r="D92" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="C93" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47827</v>
+        <v>47829</v>
       </c>
       <c r="D93" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="C94" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47858</v>
+        <v>47860</v>
       </c>
       <c r="D94" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="C95" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47889</v>
+        <v>47891</v>
       </c>
       <c r="D95" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C96" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47917</v>
+        <v>47919</v>
       </c>
       <c r="D96" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C97" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47948</v>
+        <v>47950</v>
       </c>
       <c r="D97" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="C98" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47978</v>
+        <v>47980</v>
       </c>
       <c r="D98" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C99" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48009</v>
+        <v>48011</v>
       </c>
       <c r="D99" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C100" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48039</v>
+        <v>48041</v>
       </c>
       <c r="D100" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="C101" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48070</v>
+        <v>48072</v>
       </c>
       <c r="D101" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="C102" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48101</v>
+        <v>48103</v>
       </c>
       <c r="D102" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="C103" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48131</v>
+        <v>48133</v>
       </c>
       <c r="D103" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="C104" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48162</v>
+        <v>48164</v>
       </c>
       <c r="D104" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="C105" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48192</v>
+        <v>48194</v>
       </c>
       <c r="D105" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="C106" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48223</v>
+        <v>48225</v>
       </c>
       <c r="D106" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C107" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48254</v>
+        <v>48256</v>
       </c>
       <c r="D107" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="C108" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48283</v>
+        <v>48285</v>
       </c>
       <c r="D108" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="C109" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48314</v>
+        <v>48316</v>
       </c>
       <c r="D109" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C110" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48344</v>
+        <v>48346</v>
       </c>
       <c r="D110" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="C111" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48375</v>
+        <v>48377</v>
       </c>
       <c r="D111" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="C112" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48405</v>
+        <v>48407</v>
       </c>
       <c r="D112" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="C113" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48436</v>
+        <v>48438</v>
       </c>
       <c r="D113" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C114" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48467</v>
+        <v>48469</v>
       </c>
       <c r="D114" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="C115" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48497</v>
+        <v>48499</v>
       </c>
       <c r="D115" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="C116" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48528</v>
+        <v>48530</v>
       </c>
       <c r="D116" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C117" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48558</v>
+        <v>48560</v>
       </c>
       <c r="D117" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="C118" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48589</v>
+        <v>48591</v>
       </c>
       <c r="D118" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="C119" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48620</v>
+        <v>48622</v>
       </c>
       <c r="D119" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="C120" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48648</v>
+        <v>48650</v>
       </c>
       <c r="D120" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="C121" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48679</v>
+        <v>48681</v>
       </c>
       <c r="D121" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="C122" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48709</v>
+        <v>48711</v>
       </c>
       <c r="D122" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="C123" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48740</v>
+        <v>48742</v>
       </c>
       <c r="D123" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="C124" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48770</v>
+        <v>48772</v>
       </c>
       <c r="D124" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="C125" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48801</v>
+        <v>48803</v>
       </c>
       <c r="D125" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="C126" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48832</v>
+        <v>48834</v>
       </c>
       <c r="D126" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="C127" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48862</v>
+        <v>48864</v>
       </c>
       <c r="D127" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="C128" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48893</v>
+        <v>48895</v>
       </c>
       <c r="D128" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="C129" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48923</v>
+        <v>48925</v>
       </c>
       <c r="D129" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16250,7 +16250,7 @@
       <c r="C7" s="75"/>
       <c r="D7" s="23">
         <f ca="1">TODAY()</f>
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="75" t="s">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="C10" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="D10" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C11" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="D11" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="C12" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="D12" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="C13" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="D13" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="C14" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="D14" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="C15" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="D15" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="C16" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45483</v>
+        <v>45485</v>
       </c>
       <c r="D16" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="C17" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45514</v>
+        <v>45516</v>
       </c>
       <c r="D17" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="C18" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45545</v>
+        <v>45547</v>
       </c>
       <c r="D18" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="C19" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45575</v>
+        <v>45577</v>
       </c>
       <c r="D19" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="C20" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="D20" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="C21" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="D21" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="C22" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="D22" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16691,7 +16691,7 @@
       </c>
       <c r="C23" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="D23" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="C24" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45726</v>
+        <v>45728</v>
       </c>
       <c r="D24" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="C25" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45757</v>
+        <v>45759</v>
       </c>
       <c r="D25" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="C26" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45787</v>
+        <v>45789</v>
       </c>
       <c r="D26" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="C27" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="D27" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C28" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="D28" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="C29" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="D29" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16901,7 +16901,7 @@
       </c>
       <c r="C30" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="D30" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="C31" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="D31" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16961,7 +16961,7 @@
       </c>
       <c r="C32" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45971</v>
+        <v>45973</v>
       </c>
       <c r="D32" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="C33" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="D33" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="C34" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46032</v>
+        <v>46034</v>
       </c>
       <c r="D34" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="C35" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="D35" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="C36" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46091</v>
+        <v>46093</v>
       </c>
       <c r="D36" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="C37" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46122</v>
+        <v>46124</v>
       </c>
       <c r="D37" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="C38" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46152</v>
+        <v>46154</v>
       </c>
       <c r="D38" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="C39" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46183</v>
+        <v>46185</v>
       </c>
       <c r="D39" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="C40" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46213</v>
+        <v>46215</v>
       </c>
       <c r="D40" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="C41" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46244</v>
+        <v>46246</v>
       </c>
       <c r="D41" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17261,7 +17261,7 @@
       </c>
       <c r="C42" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46275</v>
+        <v>46277</v>
       </c>
       <c r="D42" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17291,7 +17291,7 @@
       </c>
       <c r="C43" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46305</v>
+        <v>46307</v>
       </c>
       <c r="D43" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="C44" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46336</v>
+        <v>46338</v>
       </c>
       <c r="D44" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="C45" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46366</v>
+        <v>46368</v>
       </c>
       <c r="D45" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="C46" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46397</v>
+        <v>46399</v>
       </c>
       <c r="D46" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="C47" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46428</v>
+        <v>46430</v>
       </c>
       <c r="D47" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="C48" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46456</v>
+        <v>46458</v>
       </c>
       <c r="D48" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17471,7 +17471,7 @@
       </c>
       <c r="C49" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46487</v>
+        <v>46489</v>
       </c>
       <c r="D49" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="C50" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46517</v>
+        <v>46519</v>
       </c>
       <c r="D50" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17531,7 +17531,7 @@
       </c>
       <c r="C51" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46548</v>
+        <v>46550</v>
       </c>
       <c r="D51" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17561,7 +17561,7 @@
       </c>
       <c r="C52" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46578</v>
+        <v>46580</v>
       </c>
       <c r="D52" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="C53" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46609</v>
+        <v>46611</v>
       </c>
       <c r="D53" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="C54" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46640</v>
+        <v>46642</v>
       </c>
       <c r="D54" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="C55" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46670</v>
+        <v>46672</v>
       </c>
       <c r="D55" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="C56" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46701</v>
+        <v>46703</v>
       </c>
       <c r="D56" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="C57" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46731</v>
+        <v>46733</v>
       </c>
       <c r="D57" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="C58" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46762</v>
+        <v>46764</v>
       </c>
       <c r="D58" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17771,7 +17771,7 @@
       </c>
       <c r="C59" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46793</v>
+        <v>46795</v>
       </c>
       <c r="D59" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="C60" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46822</v>
+        <v>46824</v>
       </c>
       <c r="D60" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="C61" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46853</v>
+        <v>46855</v>
       </c>
       <c r="D61" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="C62" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46883</v>
+        <v>46885</v>
       </c>
       <c r="D62" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="C63" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46914</v>
+        <v>46916</v>
       </c>
       <c r="D63" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17921,7 +17921,7 @@
       </c>
       <c r="C64" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46944</v>
+        <v>46946</v>
       </c>
       <c r="D64" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17951,7 +17951,7 @@
       </c>
       <c r="C65" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46975</v>
+        <v>46977</v>
       </c>
       <c r="D65" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="C66" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47006</v>
+        <v>47008</v>
       </c>
       <c r="D66" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="C67" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47036</v>
+        <v>47038</v>
       </c>
       <c r="D67" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="C68" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47067</v>
+        <v>47069</v>
       </c>
       <c r="D68" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="C69" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47097</v>
+        <v>47099</v>
       </c>
       <c r="D69" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="C70" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47128</v>
+        <v>47130</v>
       </c>
       <c r="D70" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="C71" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47159</v>
+        <v>47161</v>
       </c>
       <c r="D71" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="C72" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47187</v>
+        <v>47189</v>
       </c>
       <c r="D72" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="C73" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47218</v>
+        <v>47220</v>
       </c>
       <c r="D73" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="C74" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47248</v>
+        <v>47250</v>
       </c>
       <c r="D74" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="C75" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47279</v>
+        <v>47281</v>
       </c>
       <c r="D75" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="C76" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47309</v>
+        <v>47311</v>
       </c>
       <c r="D76" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="C77" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47340</v>
+        <v>47342</v>
       </c>
       <c r="D77" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="C78" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47371</v>
+        <v>47373</v>
       </c>
       <c r="D78" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18371,7 +18371,7 @@
       </c>
       <c r="C79" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47401</v>
+        <v>47403</v>
       </c>
       <c r="D79" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="C80" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47432</v>
+        <v>47434</v>
       </c>
       <c r="D80" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="C81" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47462</v>
+        <v>47464</v>
       </c>
       <c r="D81" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="C82" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47493</v>
+        <v>47495</v>
       </c>
       <c r="D82" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="C83" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47524</v>
+        <v>47526</v>
       </c>
       <c r="D83" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="C84" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47552</v>
+        <v>47554</v>
       </c>
       <c r="D84" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="C85" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47583</v>
+        <v>47585</v>
       </c>
       <c r="D85" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="C86" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47613</v>
+        <v>47615</v>
       </c>
       <c r="D86" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="C87" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47644</v>
+        <v>47646</v>
       </c>
       <c r="D87" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="C88" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47674</v>
+        <v>47676</v>
       </c>
       <c r="D88" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="C89" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47705</v>
+        <v>47707</v>
       </c>
       <c r="D89" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="C90" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47736</v>
+        <v>47738</v>
       </c>
       <c r="D90" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18731,7 +18731,7 @@
       </c>
       <c r="C91" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47766</v>
+        <v>47768</v>
       </c>
       <c r="D91" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="C92" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47797</v>
+        <v>47799</v>
       </c>
       <c r="D92" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18791,7 +18791,7 @@
       </c>
       <c r="C93" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47827</v>
+        <v>47829</v>
       </c>
       <c r="D93" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="C94" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47858</v>
+        <v>47860</v>
       </c>
       <c r="D94" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18851,7 +18851,7 @@
       </c>
       <c r="C95" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47889</v>
+        <v>47891</v>
       </c>
       <c r="D95" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="C96" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47917</v>
+        <v>47919</v>
       </c>
       <c r="D96" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18911,7 +18911,7 @@
       </c>
       <c r="C97" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47948</v>
+        <v>47950</v>
       </c>
       <c r="D97" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18941,7 +18941,7 @@
       </c>
       <c r="C98" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47978</v>
+        <v>47980</v>
       </c>
       <c r="D98" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="C99" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48009</v>
+        <v>48011</v>
       </c>
       <c r="D99" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="C100" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48039</v>
+        <v>48041</v>
       </c>
       <c r="D100" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C101" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48070</v>
+        <v>48072</v>
       </c>
       <c r="D101" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="C102" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48101</v>
+        <v>48103</v>
       </c>
       <c r="D102" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="C103" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48131</v>
+        <v>48133</v>
       </c>
       <c r="D103" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="C104" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48162</v>
+        <v>48164</v>
       </c>
       <c r="D104" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="C105" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48192</v>
+        <v>48194</v>
       </c>
       <c r="D105" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="C106" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48223</v>
+        <v>48225</v>
       </c>
       <c r="D106" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="C107" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48254</v>
+        <v>48256</v>
       </c>
       <c r="D107" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="C108" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48283</v>
+        <v>48285</v>
       </c>
       <c r="D108" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="C109" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48314</v>
+        <v>48316</v>
       </c>
       <c r="D109" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19301,7 +19301,7 @@
       </c>
       <c r="C110" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48344</v>
+        <v>48346</v>
       </c>
       <c r="D110" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="C111" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48375</v>
+        <v>48377</v>
       </c>
       <c r="D111" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="C112" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48405</v>
+        <v>48407</v>
       </c>
       <c r="D112" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="C113" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48436</v>
+        <v>48438</v>
       </c>
       <c r="D113" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19421,7 +19421,7 @@
       </c>
       <c r="C114" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48467</v>
+        <v>48469</v>
       </c>
       <c r="D114" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="C115" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48497</v>
+        <v>48499</v>
       </c>
       <c r="D115" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="C116" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48528</v>
+        <v>48530</v>
       </c>
       <c r="D116" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19511,7 +19511,7 @@
       </c>
       <c r="C117" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48558</v>
+        <v>48560</v>
       </c>
       <c r="D117" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="C118" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48589</v>
+        <v>48591</v>
       </c>
       <c r="D118" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19571,7 +19571,7 @@
       </c>
       <c r="C119" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48620</v>
+        <v>48622</v>
       </c>
       <c r="D119" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19601,7 +19601,7 @@
       </c>
       <c r="C120" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48648</v>
+        <v>48650</v>
       </c>
       <c r="D120" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19631,7 +19631,7 @@
       </c>
       <c r="C121" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48679</v>
+        <v>48681</v>
       </c>
       <c r="D121" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="C122" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48709</v>
+        <v>48711</v>
       </c>
       <c r="D122" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19691,7 +19691,7 @@
       </c>
       <c r="C123" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48740</v>
+        <v>48742</v>
       </c>
       <c r="D123" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="C124" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48770</v>
+        <v>48772</v>
       </c>
       <c r="D124" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="C125" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48801</v>
+        <v>48803</v>
       </c>
       <c r="D125" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="C126" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48832</v>
+        <v>48834</v>
       </c>
       <c r="D126" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="C127" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48862</v>
+        <v>48864</v>
       </c>
       <c r="D127" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19841,7 +19841,7 @@
       </c>
       <c r="C128" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48893</v>
+        <v>48895</v>
       </c>
       <c r="D128" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19871,7 +19871,7 @@
       </c>
       <c r="C129" s="25">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48923</v>
+        <v>48925</v>
       </c>
       <c r="D129" s="41">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
